--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -403,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,11 +435,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.499</v>
+        <v>1.366</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -449,24 +449,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B4" s="4" t="n">
         <v>1.29</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-      <c r="D3" s="4" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>1.31</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -476,10 +477,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -489,10 +490,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -502,10 +503,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -515,10 +516,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>1.33</v>
+        <v>45474</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1.26</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -528,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -541,10 +542,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -554,10 +555,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -567,10 +568,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -580,10 +581,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -593,10 +594,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -606,10 +607,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -619,10 +620,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -632,7 +633,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>1.36</v>
@@ -645,10 +646,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -658,10 +659,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -671,10 +672,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -684,10 +685,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -697,10 +698,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -710,10 +711,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -723,10 +724,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -736,22 +737,23 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>1.36</v>
+        <v>44958</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>1.4</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
         <v/>
       </c>
+      <c r="D25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -760,10 +762,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -772,10 +774,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -784,10 +786,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -796,10 +798,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -808,10 +810,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -820,10 +822,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -832,7 +834,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1.54</v>
@@ -844,10 +846,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -856,10 +858,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -868,10 +870,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -880,10 +882,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -892,10 +894,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -904,10 +906,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -916,10 +918,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -928,10 +930,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -940,10 +942,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -952,10 +954,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -964,10 +966,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -976,10 +978,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -988,10 +990,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1000,10 +1002,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1024,10 +1026,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1036,7 +1038,7 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1.64</v>
@@ -1048,10 +1050,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1060,10 +1062,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1072,10 +1074,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1084,10 +1086,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1096,10 +1098,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1108,10 +1110,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1132,10 +1134,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>0.931</v>
+        <v>1.05</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1144,10 +1146,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1.25</v>
+        <v>0.931</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1156,10 +1158,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1168,10 +1170,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1180,10 +1182,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1192,10 +1194,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1204,10 +1206,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1216,10 +1218,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1228,10 +1230,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1240,10 +1242,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1252,7 +1254,7 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>1.24</v>
@@ -1264,10 +1266,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1276,10 +1278,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1288,10 +1290,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1300,10 +1302,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1312,10 +1314,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1324,10 +1326,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1336,10 +1338,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1348,10 +1350,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1360,10 +1362,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1372,10 +1374,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1384,10 +1386,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1396,10 +1398,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1408,10 +1410,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1420,10 +1422,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1432,10 +1434,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1444,10 +1446,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1456,10 +1458,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1468,10 +1470,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1480,10 +1482,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1492,10 +1494,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1504,10 +1506,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1516,10 +1518,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1528,10 +1530,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1540,10 +1542,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1552,10 +1554,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1564,10 +1566,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1576,10 +1578,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1588,10 +1590,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1600,10 +1602,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1612,10 +1614,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1623,7 +1625,12 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n"/>
+      <c r="A99" s="3" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>1.25</v>
+      </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
         <v/>
@@ -1713,6 +1720,13 @@
         <v/>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="3" t="n"/>
+      <c r="C112">
+        <f>(B112/B124-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -403,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,11 +435,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.366</v>
+        <v>1.324</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -449,11 +449,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.499</v>
+        <v>1.366</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -463,24 +463,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B5" s="4" t="n">
         <v>1.29</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-      <c r="D4" s="4" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>1.31</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -490,10 +491,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -503,10 +504,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -516,10 +517,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -529,10 +530,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>1.33</v>
+        <v>45474</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>1.26</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -542,10 +543,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -555,10 +556,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -568,10 +569,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -581,10 +582,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -594,10 +595,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -607,10 +608,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -620,10 +621,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -633,10 +634,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -646,7 +647,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>1.36</v>
@@ -659,10 +660,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -672,10 +673,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -685,10 +686,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -698,10 +699,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -711,10 +712,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -724,10 +725,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -737,10 +738,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -750,22 +751,23 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>1.36</v>
+        <v>44958</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>1.4</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
         <v/>
       </c>
+      <c r="D26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -774,10 +776,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -786,10 +788,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -810,10 +812,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -822,10 +824,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -834,10 +836,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -846,7 +848,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1.54</v>
@@ -858,10 +860,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -894,10 +896,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -918,10 +920,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -930,10 +932,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -942,10 +944,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -954,10 +956,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -966,10 +968,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -978,10 +980,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -990,10 +992,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1002,10 +1004,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1038,10 +1040,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1050,7 +1052,7 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>1.64</v>
@@ -1062,10 +1064,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1074,10 +1076,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1086,10 +1088,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1098,10 +1100,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1110,10 +1112,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1122,10 +1124,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1134,10 +1136,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1146,10 +1148,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>0.931</v>
+        <v>1.05</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1158,10 +1160,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>1.25</v>
+        <v>0.931</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1170,10 +1172,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1182,10 +1184,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1194,10 +1196,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1206,10 +1208,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1218,10 +1220,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1230,10 +1232,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1242,10 +1244,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1254,10 +1256,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1266,7 +1268,7 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>1.24</v>
@@ -1278,10 +1280,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1290,10 +1292,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1302,10 +1304,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1314,10 +1316,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1326,10 +1328,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1338,10 +1340,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1350,10 +1352,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1362,10 +1364,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1374,10 +1376,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1386,10 +1388,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1398,10 +1400,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1410,10 +1412,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1422,10 +1424,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1434,10 +1436,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1446,10 +1448,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1458,10 +1460,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1470,10 +1472,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1482,10 +1484,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1494,10 +1496,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1506,10 +1508,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1518,10 +1520,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1530,10 +1532,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1542,10 +1544,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1554,10 +1556,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1566,10 +1568,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1578,10 +1580,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1590,10 +1592,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1602,10 +1604,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1614,10 +1616,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1626,10 +1628,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1637,7 +1639,12 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n"/>
+      <c r="A100" s="3" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1.25</v>
+      </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
         <v/>
@@ -1727,6 +1734,13 @@
         <v/>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="3" t="n"/>
+      <c r="C113">
+        <f>(B113/B125-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -403,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,11 +435,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.324</v>
+        <v>1.361</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -449,11 +449,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.366</v>
+        <v>1.324</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -463,11 +463,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.499</v>
+        <v>1.366</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -477,24 +477,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B6" s="4" t="n">
         <v>1.29</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-      <c r="D5" s="4" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.31</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -504,10 +505,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -517,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -530,10 +531,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -543,10 +544,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>1.33</v>
+        <v>45474</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1.26</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -556,10 +557,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -569,10 +570,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -582,10 +583,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -595,10 +596,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -608,10 +609,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -621,10 +622,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -634,10 +635,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -647,10 +648,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -660,7 +661,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>1.36</v>
@@ -673,10 +674,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -686,10 +687,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -699,10 +700,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -712,10 +713,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -725,10 +726,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -738,10 +739,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -751,10 +752,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -764,22 +765,23 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>1.36</v>
+        <v>44958</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>1.4</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
         <v/>
       </c>
+      <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -788,10 +790,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -800,10 +802,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -812,10 +814,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -824,10 +826,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -836,10 +838,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -848,10 +850,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -860,7 +862,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1.54</v>
@@ -872,10 +874,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -884,10 +886,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -896,10 +898,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -908,10 +910,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -920,10 +922,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -932,10 +934,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -944,10 +946,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -956,10 +958,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -968,10 +970,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -980,10 +982,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -992,10 +994,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1004,10 +1006,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1040,10 +1042,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1052,10 +1054,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1064,7 +1066,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>1.64</v>
@@ -1076,10 +1078,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1088,10 +1090,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1100,10 +1102,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1112,10 +1114,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1124,10 +1126,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1136,10 +1138,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1148,10 +1150,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1160,10 +1162,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>0.931</v>
+        <v>1.05</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1172,10 +1174,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>1.25</v>
+        <v>0.931</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1184,10 +1186,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1196,10 +1198,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1208,10 +1210,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1220,10 +1222,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1232,10 +1234,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1244,10 +1246,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1256,10 +1258,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1268,10 +1270,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1280,7 +1282,7 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>1.24</v>
@@ -1292,10 +1294,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1304,10 +1306,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1316,10 +1318,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1328,10 +1330,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1340,10 +1342,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1352,10 +1354,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1364,10 +1366,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1376,10 +1378,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1388,10 +1390,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1400,10 +1402,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1412,10 +1414,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1424,10 +1426,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1436,10 +1438,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1448,10 +1450,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1460,10 +1462,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1472,10 +1474,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1484,10 +1486,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1496,10 +1498,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1508,10 +1510,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1520,10 +1522,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1532,10 +1534,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1544,10 +1546,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1556,10 +1558,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1568,10 +1570,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1580,10 +1582,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1592,10 +1594,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1604,10 +1606,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1616,10 +1618,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1628,10 +1630,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1640,10 +1642,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1651,7 +1653,12 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n"/>
+      <c r="A101" s="3" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>1.25</v>
+      </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
         <v/>
@@ -1741,6 +1748,13 @@
         <v/>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="3" t="n"/>
+      <c r="C114">
+        <f>(B114/B126-1)*100</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -403,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,1322 +435,1247 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
+        <v>1.256</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.324</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
+        <v>1.361</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.366</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
+        <v>1.324</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-14.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.499</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
+        <v>1.366</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B7" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-      <c r="D6" s="4" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C7">
-        <f>(B7/B19-1)*100</f>
-        <v/>
+      <c r="C7" t="n">
+        <v>-14.6</v>
       </c>
       <c r="D7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="C8">
-        <f>(B8/B20-1)*100</f>
-        <v/>
+        <v>1.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-3.7</v>
       </c>
       <c r="D8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="C9">
-        <f>(B9/B21-1)*100</f>
-        <v/>
+        <v>1.35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.7</v>
       </c>
       <c r="D9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="C10">
-        <f>(B10/B22-1)*100</f>
-        <v/>
+        <v>1.38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.2</v>
       </c>
       <c r="D10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="C11">
-        <f>(B11/B23-1)*100</f>
-        <v/>
+        <v>45474</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-14.3</v>
       </c>
       <c r="D11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C12">
-        <f>(B12/B24-1)*100</f>
-        <v/>
+        <v>1.33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-6.3</v>
       </c>
       <c r="D12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="C13">
-        <f>(B13/B25-1)*100</f>
-        <v/>
+        <v>1.31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-17.1</v>
       </c>
       <c r="D13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C14">
-        <f>(B14/B26-1)*100</f>
-        <v/>
+        <v>1.38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7</v>
       </c>
       <c r="D14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C15">
-        <f>(B15/B27-1)*100</f>
-        <v/>
+        <v>1.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3</v>
       </c>
       <c r="D15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="C16">
-        <f>(B16/B28-1)*100</f>
-        <v/>
+        <v>1.55</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.7</v>
       </c>
       <c r="D16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="C17">
-        <f>(B17/B29-1)*100</f>
-        <v/>
+        <v>1.38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.5</v>
       </c>
       <c r="D17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="C18">
-        <f>(B18/B30-1)*100</f>
-        <v/>
+        <v>1.57</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17.2</v>
       </c>
       <c r="D18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C19">
-        <f>(B19/B31-1)*100</f>
-        <v/>
+        <v>1.51</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.3</v>
       </c>
       <c r="D19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>1.36</v>
       </c>
-      <c r="C20">
-        <f>(B20/B32-1)*100</f>
-        <v/>
+      <c r="C20" t="n">
+        <v>-5.6</v>
       </c>
       <c r="D20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C21">
-        <f>(B21/B33-1)*100</f>
-        <v/>
+        <v>1.36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.5</v>
       </c>
       <c r="D21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="C22">
-        <f>(B22/B34-1)*100</f>
-        <v/>
+        <v>1.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.5</v>
       </c>
       <c r="D22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="C23">
-        <f>(B23/B35-1)*100</f>
-        <v/>
+        <v>1.47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.8</v>
       </c>
       <c r="D23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="C24">
-        <f>(B24/B36-1)*100</f>
-        <v/>
+        <v>1.42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-7.8</v>
       </c>
       <c r="D24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C25">
-        <f>(B25/B37-1)*100</f>
-        <v/>
+        <v>1.58</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.6</v>
       </c>
       <c r="D25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="C26">
-        <f>(B26/B38-1)*100</f>
-        <v/>
+        <v>1.37</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-25.1</v>
       </c>
       <c r="D26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C27">
-        <f>(B27/B39-1)*100</f>
-        <v/>
+        <v>1.34</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-20.2</v>
       </c>
       <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C28">
-        <f>(B28/B40-1)*100</f>
-        <v/>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="C29">
-        <f>(B29/B41-1)*100</f>
-        <v/>
+        <v>1.36</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-20.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="C30">
-        <f>(B30/B42-1)*100</f>
-        <v/>
+        <v>1.34</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-23.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C31">
-        <f>(B31/B43-1)*100</f>
-        <v/>
+        <v>1.42</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-16.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="C32">
-        <f>(B32/B44-1)*100</f>
-        <v/>
+        <v>1.44</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-9.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="C33">
-        <f>(B33/B45-1)*100</f>
-        <v/>
+        <v>1.47</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-5.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="C34">
-        <f>(B34/B46-1)*100</f>
-        <v/>
+        <v>1.52</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-4.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C35">
-        <f>(B35/B47-1)*100</f>
-        <v/>
+        <v>1.39</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-13.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1.54</v>
       </c>
-      <c r="C36">
-        <f>(B36/B48-1)*100</f>
-        <v/>
+      <c r="C36" t="n">
+        <v>-6.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="C37">
-        <f>(B37/B49-1)*100</f>
-        <v/>
+        <v>1.54</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-4.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="C38">
-        <f>(B38/B50-1)*100</f>
-        <v/>
+        <v>1.83</v>
+      </c>
+      <c r="C38" t="n">
+        <v>22.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C39">
-        <f>(B39/B51-1)*100</f>
-        <v/>
+        <v>1.68</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C40">
-        <f>(B40/B52-1)*100</f>
-        <v/>
+        <v>1.74</v>
+      </c>
+      <c r="C40" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C41">
-        <f>(B41/B53-1)*100</f>
-        <v/>
+        <v>1.71</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C42">
-        <f>(B42/B54-1)*100</f>
-        <v/>
+        <v>1.76</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C43">
-        <f>(B43/B55-1)*100</f>
-        <v/>
+        <v>1.7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="C44">
-        <f>(B44/B56-1)*100</f>
-        <v/>
+        <v>1.59</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C45">
-        <f>(B45/B57-1)*100</f>
-        <v/>
+        <v>1.56</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C46">
-        <f>(B46/B58-1)*100</f>
-        <v/>
+        <v>1.59</v>
+      </c>
+      <c r="C46" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="C47">
-        <f>(B47/B59-1)*100</f>
-        <v/>
+        <v>1.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="C48">
-        <f>(B48/B60-1)*100</f>
-        <v/>
+        <v>1.64</v>
+      </c>
+      <c r="C48" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C49">
-        <f>(B49/B61-1)*100</f>
-        <v/>
+        <v>1.61</v>
+      </c>
+      <c r="C49" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="C50">
-        <f>(B50/B62-1)*100</f>
-        <v/>
+        <v>1.49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="C51">
-        <f>(B51/B63-1)*100</f>
-        <v/>
+        <v>1.67</v>
+      </c>
+      <c r="C51" t="n">
+        <v>33.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="C52">
-        <f>(B52/B64-1)*100</f>
-        <v/>
+        <v>1.41</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-8.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>1.64</v>
       </c>
-      <c r="C53">
-        <f>(B53/B65-1)*100</f>
-        <v/>
+      <c r="C53" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C54">
-        <f>(B54/B66-1)*100</f>
-        <v/>
+        <v>1.64</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C55">
-        <f>(B55/B67-1)*100</f>
-        <v/>
+        <v>1.55</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="C56">
-        <f>(B56/B68-1)*100</f>
-        <v/>
+        <v>1.54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C57">
-        <f>(B57/B69-1)*100</f>
-        <v/>
+        <v>1.46</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="C58">
-        <f>(B58/B70-1)*100</f>
-        <v/>
+        <v>1.4</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C59">
-        <f>(B59/B71-1)*100</f>
-        <v/>
+        <v>1.52</v>
+      </c>
+      <c r="C59" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="C60">
-        <f>(B60/B72-1)*100</f>
-        <v/>
+        <v>1.25</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>0.931</v>
-      </c>
-      <c r="C61">
-        <f>(B61/B73-1)*100</f>
-        <v/>
+        <v>1.05</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-18.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C62">
-        <f>(B62/B74-1)*100</f>
-        <v/>
+        <v>0.931</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-26.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C63">
-        <f>(B63/B75-1)*100</f>
-        <v/>
+        <v>1.25</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="C64">
-        <f>(B64/B76-1)*100</f>
-        <v/>
+        <v>1.54</v>
+      </c>
+      <c r="C64" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C65">
-        <f>(B65/B77-1)*100</f>
-        <v/>
+        <v>1.58</v>
+      </c>
+      <c r="C65" t="n">
+        <v>28.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="C66">
-        <f>(B66/B78-1)*100</f>
-        <v/>
+        <v>1.55</v>
+      </c>
+      <c r="C66" t="n">
+        <v>42.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="C67">
-        <f>(B67/B79-1)*100</f>
-        <v/>
+        <v>1.35</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C68">
-        <f>(B68/B80-1)*100</f>
-        <v/>
+        <v>1.32</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="C69">
-        <f>(B69/B81-1)*100</f>
-        <v/>
+        <v>1.31</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="C70">
-        <f>(B70/B82-1)*100</f>
-        <v/>
+        <v>1.38</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>1.24</v>
       </c>
-      <c r="C71">
-        <f>(B71/B83-1)*100</f>
-        <v/>
+      <c r="C71" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="C72">
-        <f>(B72/B84-1)*100</f>
-        <v/>
+        <v>1.24</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C73">
-        <f>(B73/B85-1)*100</f>
-        <v/>
+        <v>1.29</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-5.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C74">
-        <f>(B74/B86-1)*100</f>
-        <v/>
+        <v>1.27</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="C75">
-        <f>(B75/B87-1)*100</f>
-        <v/>
+        <v>1.19</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="C76">
-        <f>(B76/B88-1)*100</f>
-        <v/>
+        <v>1.12</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-12.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="C77">
-        <f>(B77/B89-1)*100</f>
-        <v/>
+        <v>1.23</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-5.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="C78">
-        <f>(B78/B90-1)*100</f>
-        <v/>
+        <v>1.09</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-7.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C79">
-        <f>(B79/B91-1)*100</f>
-        <v/>
+        <v>1.18</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-7.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C80">
-        <f>(B80/B92-1)*100</f>
-        <v/>
+        <v>1.22</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="C81">
-        <f>(B81/B93-1)*100</f>
-        <v/>
+        <v>1.25</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="C82">
-        <f>(B82/B94-1)*100</f>
-        <v/>
+        <v>1.29</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C83">
-        <f>(B83/B95-1)*100</f>
-        <v/>
+        <v>1.21</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C84">
-        <f>(B84/B96-1)*100</f>
-        <v/>
+        <v>1.19</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-4.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="C85">
-        <f>(B85/B97-1)*100</f>
-        <v/>
+        <v>1.36</v>
+      </c>
+      <c r="C85" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="C86">
-        <f>(B86/B98-1)*100</f>
-        <v/>
+        <v>1.28</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="C87">
-        <f>(B87/B99-1)*100</f>
-        <v/>
+        <v>1.32</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C88">
-        <f>(B88/B100-1)*100</f>
-        <v/>
+        <v>1.28</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="C89">
-        <f>(B89/B101-1)*100</f>
-        <v/>
+        <v>1.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C90">
-        <f>(B90/B102-1)*100</f>
-        <v/>
+        <v>1.18</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-5.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="C91">
-        <f>(B91/B103-1)*100</f>
+        <f>(B90/B102-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="C92">
-        <f>(B92/B104-1)*100</f>
+        <f>(B91/B103-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="C93">
-        <f>(B93/B105-1)*100</f>
+        <f>(B92/B104-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="C94">
-        <f>(B94/B106-1)*100</f>
+        <f>(B93/B105-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="C95">
-        <f>(B95/B107-1)*100</f>
+        <f>(B94/B106-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="C96">
-        <f>(B96/B108-1)*100</f>
+        <f>(B95/B107-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="C97">
-        <f>(B97/B109-1)*100</f>
+        <f>(B96/B108-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="C98">
-        <f>(B98/B110-1)*100</f>
+        <f>(B97/B109-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="C99">
-        <f>(B99/B111-1)*100</f>
+        <f>(B98/B110-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C100">
-        <f>(B100/B112-1)*100</f>
+        <f>(B99/B111-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C101">
+        <f>(B100/B112-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
         <v>42705</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B102" s="1" t="n">
         <v>1.25</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <f>(B101/B113-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="n"/>
-      <c r="C102">
-        <f>(B102/B114-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n"/>
       <c r="C103">
-        <f>(B103/B115-1)*100</f>
+        <f>(B102/B114-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n"/>
       <c r="C104">
-        <f>(B104/B116-1)*100</f>
+        <f>(B103/B115-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n"/>
       <c r="C105">
-        <f>(B105/B117-1)*100</f>
+        <f>(B104/B116-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n"/>
       <c r="C106">
-        <f>(B106/B118-1)*100</f>
+        <f>(B105/B117-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n"/>
       <c r="C107">
-        <f>(B107/B119-1)*100</f>
+        <f>(B106/B118-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n"/>
       <c r="C108">
-        <f>(B108/B120-1)*100</f>
+        <f>(B107/B119-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n"/>
       <c r="C109">
-        <f>(B109/B121-1)*100</f>
+        <f>(B108/B120-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n"/>
       <c r="C110">
-        <f>(B110/B122-1)*100</f>
+        <f>(B109/B121-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n"/>
       <c r="C111">
-        <f>(B111/B123-1)*100</f>
+        <f>(B110/B122-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n"/>
       <c r="C112">
-        <f>(B112/B124-1)*100</f>
+        <f>(B111/B123-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n"/>
       <c r="C113">
-        <f>(B113/B125-1)*100</f>
+        <f>(B112/B124-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n"/>
       <c r="C114">
+        <f>(B113/B125-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n"/>
+      <c r="C115">
         <f>(B114/B126-1)*100</f>
         <v/>
       </c>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -403,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,1247 +435,1260 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.256</v>
+        <v>1.321</v>
       </c>
       <c r="C2" t="n">
-        <v>-9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.361</v>
+        <v>1.256</v>
       </c>
       <c r="C3" t="n">
-        <v>4.7</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.324</v>
+        <v>1.361</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.366</v>
+        <v>1.324</v>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>-14.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.499</v>
+        <v>1.366</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B8" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>-14.6</v>
-      </c>
-      <c r="D7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-3.7</v>
       </c>
       <c r="D8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7</v>
+        <v>-3.7</v>
       </c>
       <c r="D9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="C10" t="n">
-        <v>6.2</v>
+        <v>-0.7</v>
       </c>
       <c r="D10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.3</v>
+        <v>6.2</v>
       </c>
       <c r="D11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>1.33</v>
+        <v>45474</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>1.26</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.3</v>
+        <v>-14.3</v>
       </c>
       <c r="D12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="C13" t="n">
-        <v>-17.1</v>
+        <v>-6.3</v>
       </c>
       <c r="D13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7</v>
+        <v>-17.1</v>
       </c>
       <c r="D14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="C15" t="n">
-        <v>-3</v>
+        <v>0.7</v>
       </c>
       <c r="D15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="C16" t="n">
-        <v>10.7</v>
+        <v>-3</v>
       </c>
       <c r="D16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="C17" t="n">
-        <v>1.5</v>
+        <v>10.7</v>
       </c>
       <c r="D17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="C18" t="n">
-        <v>17.2</v>
+        <v>1.5</v>
       </c>
       <c r="D18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="C19" t="n">
-        <v>6.3</v>
+        <v>17.2</v>
       </c>
       <c r="D19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.6</v>
+        <v>6.3</v>
       </c>
       <c r="D20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>1.36</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.5</v>
+        <v>-5.6</v>
       </c>
       <c r="D21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="C22" t="n">
-        <v>-14.5</v>
+        <v>-7.5</v>
       </c>
       <c r="D22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="C23" t="n">
-        <v>5.8</v>
+        <v>-14.5</v>
       </c>
       <c r="D23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.8</v>
+        <v>5.8</v>
       </c>
       <c r="D24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="C25" t="n">
-        <v>2.6</v>
+        <v>-7.8</v>
       </c>
       <c r="D25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="C26" t="n">
-        <v>-25.1</v>
+        <v>2.6</v>
       </c>
       <c r="D26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="C27" t="n">
-        <v>-20.2</v>
+        <v>-25.1</v>
       </c>
       <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="C28" t="n">
-        <v>-19.5</v>
+        <v>-20.2</v>
       </c>
       <c r="D28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>1.36</v>
+        <v>44958</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>1.4</v>
       </c>
       <c r="C29" t="n">
-        <v>-20.5</v>
-      </c>
+        <v>-19.5</v>
+      </c>
+      <c r="D29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="C30" t="n">
-        <v>-23.9</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="C31" t="n">
-        <v>-16.5</v>
+        <v>-23.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.4</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.8</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.4</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.1</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.1</v>
+        <v>-13.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1.54</v>
       </c>
       <c r="C37" t="n">
-        <v>-4.3</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="C38" t="n">
-        <v>22.8</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="C40" t="n">
-        <v>23.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="C41" t="n">
-        <v>4.3</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="C42" t="n">
-        <v>7.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="C43" t="n">
-        <v>9.699999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="C44" t="n">
-        <v>3.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="C45" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="C46" t="n">
-        <v>13.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="C47" t="n">
-        <v>5.3</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="C48" t="n">
-        <v>31.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="C49" t="n">
-        <v>53.3</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="C50" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="C51" t="n">
-        <v>33.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="C52" t="n">
-        <v>-8.4</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="C53" t="n">
-        <v>3.8</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>1.64</v>
       </c>
       <c r="C54" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="C55" t="n">
-        <v>14.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="C56" t="n">
-        <v>16.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="C57" t="n">
-        <v>11.5</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="C58" t="n">
-        <v>1.4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="C59" t="n">
-        <v>22.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="C61" t="n">
-        <v>-18.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>0.931</v>
+        <v>1.05</v>
       </c>
       <c r="C62" t="n">
-        <v>-26.7</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>1.25</v>
+        <v>0.931</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>-26.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="C64" t="n">
-        <v>37.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="C65" t="n">
-        <v>28.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="C66" t="n">
-        <v>42.2</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="C67" t="n">
-        <v>14.4</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="C68" t="n">
-        <v>8.199999999999999</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="C69" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="C71" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>1.24</v>
       </c>
       <c r="C72" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-5.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.8</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C75" t="n">
-        <v>-9.800000000000001</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.5</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.4</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.6</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.1</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="C80" t="n">
-        <v>-3.2</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="C81" t="n">
-        <v>5.9</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="C82" t="n">
-        <v>11.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="C85" t="n">
-        <v>17.2</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="C86" t="n">
-        <v>11.3</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="C87" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="C89" t="n">
-        <v>9.199999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="C90" t="n">
-        <v>-5.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C91">
-        <f>(B90/B102-1)*100</f>
-        <v/>
+        <v>1.18</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-5.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="C92">
-        <f>(B91/B103-1)*100</f>
+        <f>(B90/B102-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="C93">
-        <f>(B92/B104-1)*100</f>
+        <f>(B91/B103-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="C94">
-        <f>(B93/B105-1)*100</f>
+        <f>(B92/B104-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="C95">
-        <f>(B94/B106-1)*100</f>
+        <f>(B93/B105-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="C96">
-        <f>(B95/B107-1)*100</f>
+        <f>(B94/B106-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="C97">
-        <f>(B96/B108-1)*100</f>
+        <f>(B95/B107-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="C98">
-        <f>(B97/B109-1)*100</f>
+        <f>(B96/B108-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="C99">
-        <f>(B98/B110-1)*100</f>
+        <f>(B97/B109-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="C100">
-        <f>(B99/B111-1)*100</f>
+        <f>(B98/B110-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C101">
-        <f>(B100/B112-1)*100</f>
+        <f>(B99/B111-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C102">
+        <f>(B100/B112-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
         <v>42705</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B103" s="1" t="n">
         <v>1.25</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <f>(B101/B113-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="n"/>
-      <c r="C103">
-        <f>(B102/B114-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n"/>
       <c r="C104">
-        <f>(B103/B115-1)*100</f>
+        <f>(B102/B114-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n"/>
       <c r="C105">
-        <f>(B104/B116-1)*100</f>
+        <f>(B103/B115-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n"/>
       <c r="C106">
-        <f>(B105/B117-1)*100</f>
+        <f>(B104/B116-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n"/>
       <c r="C107">
-        <f>(B106/B118-1)*100</f>
+        <f>(B105/B117-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n"/>
       <c r="C108">
-        <f>(B107/B119-1)*100</f>
+        <f>(B106/B118-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n"/>
       <c r="C109">
-        <f>(B108/B120-1)*100</f>
+        <f>(B107/B119-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n"/>
       <c r="C110">
-        <f>(B109/B121-1)*100</f>
+        <f>(B108/B120-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n"/>
       <c r="C111">
-        <f>(B110/B122-1)*100</f>
+        <f>(B109/B121-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n"/>
       <c r="C112">
-        <f>(B111/B123-1)*100</f>
+        <f>(B110/B122-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n"/>
       <c r="C113">
-        <f>(B112/B124-1)*100</f>
+        <f>(B111/B123-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n"/>
       <c r="C114">
-        <f>(B113/B125-1)*100</f>
+        <f>(B112/B124-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n"/>
       <c r="C115">
+        <f>(B113/B125-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n"/>
+      <c r="C116">
         <f>(B114/B126-1)*100</f>
         <v/>
       </c>

--- a/data/housing-starts.xlsx
+++ b/data/housing-starts.xlsx
@@ -403,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,1260 +435,1273 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.321</v>
+        <v>1.307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.256</v>
+        <v>1.321</v>
       </c>
       <c r="C3" t="n">
-        <v>-9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.361</v>
+        <v>1.256</v>
       </c>
       <c r="C4" t="n">
-        <v>4.7</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.324</v>
+        <v>1.361</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.366</v>
+        <v>1.324</v>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-14.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.499</v>
+        <v>1.366</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B9" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>-14.6</v>
-      </c>
-      <c r="D8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-3.7</v>
       </c>
       <c r="D9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7</v>
+        <v>-3.7</v>
       </c>
       <c r="D10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="C11" t="n">
-        <v>6.2</v>
+        <v>-0.7</v>
       </c>
       <c r="D11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.3</v>
+        <v>6.2</v>
       </c>
       <c r="D12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>1.33</v>
+        <v>45474</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1.26</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.3</v>
+        <v>-14.3</v>
       </c>
       <c r="D13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-17.1</v>
+        <v>-6.3</v>
       </c>
       <c r="D14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7</v>
+        <v>-17.1</v>
       </c>
       <c r="D15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="C16" t="n">
-        <v>-3</v>
+        <v>0.7</v>
       </c>
       <c r="D16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="C17" t="n">
-        <v>10.7</v>
+        <v>-3</v>
       </c>
       <c r="D17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="C18" t="n">
-        <v>1.5</v>
+        <v>10.7</v>
       </c>
       <c r="D18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="C19" t="n">
-        <v>17.2</v>
+        <v>1.5</v>
       </c>
       <c r="D19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="C20" t="n">
-        <v>6.3</v>
+        <v>17.2</v>
       </c>
       <c r="D20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.6</v>
+        <v>6.3</v>
       </c>
       <c r="D21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>1.36</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.5</v>
+        <v>-5.6</v>
       </c>
       <c r="D22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="C23" t="n">
-        <v>-14.5</v>
+        <v>-7.5</v>
       </c>
       <c r="D23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.8</v>
+        <v>-14.5</v>
       </c>
       <c r="D24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.8</v>
+        <v>5.8</v>
       </c>
       <c r="D25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="C26" t="n">
-        <v>2.6</v>
+        <v>-7.8</v>
       </c>
       <c r="D26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="C27" t="n">
-        <v>-25.1</v>
+        <v>2.6</v>
       </c>
       <c r="D27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="C28" t="n">
-        <v>-20.2</v>
+        <v>-25.1</v>
       </c>
       <c r="D28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="C29" t="n">
-        <v>-19.5</v>
+        <v>-20.2</v>
       </c>
       <c r="D29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>1.36</v>
+        <v>44958</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>1.4</v>
       </c>
       <c r="C30" t="n">
-        <v>-20.5</v>
-      </c>
+        <v>-19.5</v>
+      </c>
+      <c r="D30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="C31" t="n">
-        <v>-23.9</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="C32" t="n">
-        <v>-16.5</v>
+        <v>-23.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="C33" t="n">
-        <v>-9.4</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.8</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.4</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.1</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="C37" t="n">
-        <v>-6.1</v>
+        <v>-13.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>1.54</v>
       </c>
       <c r="C38" t="n">
-        <v>-4.3</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="C39" t="n">
-        <v>22.8</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="C41" t="n">
-        <v>23.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="C42" t="n">
-        <v>4.3</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="C43" t="n">
-        <v>7.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="C44" t="n">
-        <v>9.699999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="C45" t="n">
-        <v>3.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="C46" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="C47" t="n">
-        <v>13.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="C48" t="n">
-        <v>5.3</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="C49" t="n">
-        <v>31.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="C50" t="n">
-        <v>53.3</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="C51" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="C52" t="n">
-        <v>33.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="C53" t="n">
-        <v>-8.4</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="C54" t="n">
-        <v>3.8</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>1.64</v>
       </c>
       <c r="C55" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="C56" t="n">
-        <v>14.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="C57" t="n">
-        <v>16.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="C58" t="n">
-        <v>11.5</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="C59" t="n">
-        <v>1.4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="C60" t="n">
-        <v>22.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="C62" t="n">
-        <v>-18.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>0.931</v>
+        <v>1.05</v>
       </c>
       <c r="C63" t="n">
-        <v>-26.7</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1.25</v>
+        <v>0.931</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>-26.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="C65" t="n">
-        <v>37.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="C66" t="n">
-        <v>28.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="C67" t="n">
-        <v>42.2</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="C68" t="n">
-        <v>14.4</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="C69" t="n">
-        <v>8.199999999999999</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="C70" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="C72" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>1.24</v>
       </c>
       <c r="C73" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="C74" t="n">
-        <v>-5.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.8</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C76" t="n">
-        <v>-9.800000000000001</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.5</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="C78" t="n">
-        <v>-5.4</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.6</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.1</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="C81" t="n">
-        <v>-3.2</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="C82" t="n">
-        <v>5.9</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="C83" t="n">
-        <v>11.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="C86" t="n">
-        <v>17.2</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="C87" t="n">
-        <v>11.3</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="C88" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="C90" t="n">
-        <v>9.199999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="C91" t="n">
-        <v>-5.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C92">
-        <f>(B90/B102-1)*100</f>
-        <v/>
+        <v>1.18</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-5.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="C93">
-        <f>(B91/B103-1)*100</f>
+        <f>(B90/B102-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="C94">
-        <f>(B92/B104-1)*100</f>
+        <f>(B91/B103-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="C95">
-        <f>(B93/B105-1)*100</f>
+        <f>(B92/B104-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="C96">
-        <f>(B94/B106-1)*100</f>
+        <f>(B93/B105-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="C97">
-        <f>(B95/B107-1)*100</f>
+        <f>(B94/B106-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="C98">
-        <f>(B96/B108-1)*100</f>
+        <f>(B95/B107-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="C99">
-        <f>(B97/B109-1)*100</f>
+        <f>(B96/B108-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="C100">
-        <f>(B98/B110-1)*100</f>
+        <f>(B97/B109-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="C101">
-        <f>(B99/B111-1)*100</f>
+        <f>(B98/B110-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="C102">
-        <f>(B100/B112-1)*100</f>
+        <f>(B99/B111-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C103">
+        <f>(B100/B112-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
         <v>42705</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B104" s="1" t="n">
         <v>1.25</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <f>(B101/B113-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="n"/>
-      <c r="C104">
-        <f>(B102/B114-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n"/>
       <c r="C105">
-        <f>(B103/B115-1)*100</f>
+        <f>(B102/B114-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n"/>
       <c r="C106">
-        <f>(B104/B116-1)*100</f>
+        <f>(B103/B115-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n"/>
       <c r="C107">
-        <f>(B105/B117-1)*100</f>
+        <f>(B104/B116-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n"/>
       <c r="C108">
-        <f>(B106/B118-1)*100</f>
+        <f>(B105/B117-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n"/>
       <c r="C109">
-        <f>(B107/B119-1)*100</f>
+        <f>(B106/B118-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n"/>
       <c r="C110">
-        <f>(B108/B120-1)*100</f>
+        <f>(B107/B119-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n"/>
       <c r="C111">
-        <f>(B109/B121-1)*100</f>
+        <f>(B108/B120-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n"/>
       <c r="C112">
-        <f>(B110/B122-1)*100</f>
+        <f>(B109/B121-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n"/>
       <c r="C113">
-        <f>(B111/B123-1)*100</f>
+        <f>(B110/B122-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n"/>
       <c r="C114">
-        <f>(B112/B124-1)*100</f>
+        <f>(B111/B123-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n"/>
       <c r="C115">
-        <f>(B113/B125-1)*100</f>
+        <f>(B112/B124-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n"/>
       <c r="C116">
+        <f>(B113/B125-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n"/>
+      <c r="C117">
         <f>(B114/B126-1)*100</f>
         <v/>
       </c>
